--- a/AShareData/data/自编指数配置.xlsx
+++ b/AShareData/data/自编指数配置.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="120">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,10 @@
   </si>
   <si>
     <t>start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全市场等权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -820,19 +824,19 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>B3&amp;".IND"</f>
-        <v>ST.IND</v>
+        <v>全市场等权.IND</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>119</v>
+      </c>
+      <c r="G3">
+        <v>360</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -847,32 +851,19 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>B4&amp;".IND"</f>
-        <v>申万银行.IND</v>
-      </c>
-      <c r="B4" t="str">
-        <f>D4&amp;F4</f>
-        <v>申万银行</v>
+        <v>ST.IND</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>360</v>
-      </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -886,12 +877,12 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A68" si="0">B5&amp;".IND"</f>
-        <v>申万房地产开发.IND</v>
+        <f>B5&amp;".IND"</f>
+        <v>申万银行.IND</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B68" si="1">D5&amp;F5</f>
-        <v>申万房地产开发</v>
+        <f>D5&amp;F5</f>
+        <v>申万银行</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -902,8 +893,8 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G5">
         <v>360</v>
@@ -926,12 +917,12 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>申万化学制药.IND</v>
+        <f t="shared" ref="A6:A69" si="0">B6&amp;".IND"</f>
+        <v>申万房地产开发.IND</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>申万化学制药</v>
+        <f t="shared" ref="B6:B69" si="1">D6&amp;F6</f>
+        <v>申万房地产开发</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -943,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>360</v>
@@ -967,11 +958,11 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>申万环保工程及服务.IND</v>
+        <v>申万化学制药.IND</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>申万环保工程及服务</v>
+        <v>申万化学制药</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -983,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>360</v>
@@ -1007,11 +998,11 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>申万商业物业经营.IND</v>
+        <v>申万环保工程及服务.IND</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>申万商业物业经营</v>
+        <v>申万环保工程及服务</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1023,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>360</v>
@@ -1047,11 +1038,11 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>申万运输设备.IND</v>
+        <v>申万商业物业经营.IND</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>申万运输设备</v>
+        <v>申万商业物业经营</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1063,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>360</v>
@@ -1087,11 +1078,11 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>申万综合.IND</v>
+        <v>申万运输设备.IND</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>申万综合</v>
+        <v>申万运输设备</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1103,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -1127,11 +1118,11 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>申万园林工程.IND</v>
+        <v>申万综合.IND</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>申万园林工程</v>
+        <v>申万综合</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1143,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11">
         <v>360</v>
@@ -1167,11 +1158,11 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>申万玻璃制造.IND</v>
+        <v>申万园林工程.IND</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>申万玻璃制造</v>
+        <v>申万园林工程</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1183,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>360</v>
@@ -1207,11 +1198,11 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>申万视听器材.IND</v>
+        <v>申万玻璃制造.IND</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>申万视听器材</v>
+        <v>申万玻璃制造</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1223,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -1247,11 +1238,11 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>申万其他交运设备.IND</v>
+        <v>申万视听器材.IND</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>申万其他交运设备</v>
+        <v>申万视听器材</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1263,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>360</v>
@@ -1287,11 +1278,11 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>申万贸易.IND</v>
+        <v>申万其他交运设备.IND</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>申万贸易</v>
+        <v>申万其他交运设备</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1303,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>360</v>
@@ -1327,11 +1318,11 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>申万电子制造.IND</v>
+        <v>申万贸易.IND</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>申万电子制造</v>
+        <v>申万贸易</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1343,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>360</v>
@@ -1367,11 +1358,11 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>申万其他建材.IND</v>
+        <v>申万电子制造.IND</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
-        <v>申万其他建材</v>
+        <v>申万电子制造</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1383,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <v>360</v>
@@ -1407,11 +1398,11 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>申万汽车服务.IND</v>
+        <v>申万其他建材.IND</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v>申万汽车服务</v>
+        <v>申万其他建材</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1423,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <v>360</v>
@@ -1447,11 +1438,11 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>申万家用轻工.IND</v>
+        <v>申万汽车服务.IND</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v>申万家用轻工</v>
+        <v>申万汽车服务</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1463,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19">
         <v>360</v>
@@ -1487,11 +1478,11 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>申万电力.IND</v>
+        <v>申万家用轻工.IND</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v>申万电力</v>
+        <v>申万家用轻工</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1503,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20">
         <v>360</v>
@@ -1527,11 +1518,11 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>申万医药商业.IND</v>
+        <v>申万电力.IND</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v>申万医药商业</v>
+        <v>申万电力</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1543,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21">
         <v>360</v>
@@ -1567,11 +1558,11 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>申万汽车零部件.IND</v>
+        <v>申万医药商业.IND</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v>申万汽车零部件</v>
+        <v>申万医药商业</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1583,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <v>360</v>
@@ -1607,11 +1598,11 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>申万通信设备.IND</v>
+        <v>申万汽车零部件.IND</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>申万通信设备</v>
+        <v>申万汽车零部件</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1623,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>360</v>
@@ -1647,11 +1638,11 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>申万营销传播.IND</v>
+        <v>申万通信设备.IND</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v>申万营销传播</v>
+        <v>申万通信设备</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1663,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>360</v>
@@ -1687,11 +1678,11 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>申万金属制品.IND</v>
+        <v>申万营销传播.IND</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
-        <v>申万金属制品</v>
+        <v>申万营销传播</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1703,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>360</v>
@@ -1727,11 +1718,11 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>申万光学光电子.IND</v>
+        <v>申万金属制品.IND</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
-        <v>申万光学光电子</v>
+        <v>申万金属制品</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1743,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>360</v>
@@ -1767,11 +1758,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>申万饲料.IND</v>
+        <v>申万光学光电子.IND</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
-        <v>申万饲料</v>
+        <v>申万光学光电子</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1783,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27">
         <v>360</v>
@@ -1807,11 +1798,11 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>申万专业工程.IND</v>
+        <v>申万饲料.IND</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
-        <v>申万专业工程</v>
+        <v>申万饲料</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1823,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>360</v>
@@ -1847,11 +1838,11 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>申万石油化工.IND</v>
+        <v>申万专业工程.IND</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
-        <v>申万石油化工</v>
+        <v>申万专业工程</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1863,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>360</v>
@@ -1887,11 +1878,11 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>申万工业金属.IND</v>
+        <v>申万石油化工.IND</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
-        <v>申万工业金属</v>
+        <v>申万石油化工</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1903,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>360</v>
@@ -1927,11 +1918,11 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>申万其他电子.IND</v>
+        <v>申万工业金属.IND</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
-        <v>申万其他电子</v>
+        <v>申万工业金属</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -1943,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>360</v>
@@ -1967,11 +1958,11 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>申万计算机设备.IND</v>
+        <v>申万其他电子.IND</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
-        <v>申万计算机设备</v>
+        <v>申万其他电子</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1983,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>360</v>
@@ -2007,11 +1998,11 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>申万港口.IND</v>
+        <v>申万计算机设备.IND</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
-        <v>申万港口</v>
+        <v>申万计算机设备</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -2023,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>360</v>
@@ -2047,11 +2038,11 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>申万机场.IND</v>
+        <v>申万港口.IND</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
-        <v>申万机场</v>
+        <v>申万港口</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2063,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>360</v>
@@ -2087,11 +2078,11 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>申万航空运输.IND</v>
+        <v>申万机场.IND</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
-        <v>申万航空运输</v>
+        <v>申万机场</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -2103,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>360</v>
@@ -2127,11 +2118,11 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>申万医疗服务.IND</v>
+        <v>申万航空运输.IND</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>申万医疗服务</v>
+        <v>申万航空运输</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -2143,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36">
         <v>360</v>
@@ -2167,11 +2158,11 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>申万文化传媒.IND</v>
+        <v>申万医疗服务.IND</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>申万文化传媒</v>
+        <v>申万医疗服务</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2183,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>360</v>
@@ -2207,11 +2198,11 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>申万专用设备.IND</v>
+        <v>申万文化传媒.IND</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>申万专用设备</v>
+        <v>申万文化传媒</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2223,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38">
         <v>360</v>
@@ -2247,11 +2238,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>申万化学纤维.IND</v>
+        <v>申万专用设备.IND</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>申万化学纤维</v>
+        <v>申万专用设备</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -2263,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39">
         <v>360</v>
@@ -2287,11 +2278,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>申万电气自动化设备.IND</v>
+        <v>申万化学纤维.IND</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>申万电气自动化设备</v>
+        <v>申万化学纤维</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -2303,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>360</v>
@@ -2327,11 +2318,11 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>申万水泥制造.IND</v>
+        <v>申万电气自动化设备.IND</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>申万水泥制造</v>
+        <v>申万电气自动化设备</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -2343,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41">
         <v>360</v>
@@ -2367,11 +2358,11 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>申万生物制品.IND</v>
+        <v>申万水泥制造.IND</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>申万生物制品</v>
+        <v>申万水泥制造</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2383,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42">
         <v>360</v>
@@ -2407,11 +2398,11 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>申万白色家电.IND</v>
+        <v>申万生物制品.IND</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>申万白色家电</v>
+        <v>申万生物制品</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -2423,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>360</v>
@@ -2447,11 +2438,11 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>申万燃气.IND</v>
+        <v>申万白色家电.IND</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>申万燃气</v>
+        <v>申万白色家电</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -2463,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>360</v>
@@ -2487,11 +2478,11 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>申万化学制品.IND</v>
+        <v>申万燃气.IND</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>申万化学制品</v>
+        <v>申万燃气</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2503,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45">
         <v>360</v>
@@ -2527,11 +2518,11 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>申万通用机械.IND</v>
+        <v>申万化学制品.IND</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>申万通用机械</v>
+        <v>申万化学制品</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2543,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46">
         <v>360</v>
@@ -2567,11 +2558,11 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>申万多元金融.IND</v>
+        <v>申万通用机械.IND</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>申万多元金融</v>
+        <v>申万通用机械</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -2583,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G47">
         <v>360</v>
@@ -2607,11 +2598,11 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>申万一般零售.IND</v>
+        <v>申万多元金融.IND</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>申万一般零售</v>
+        <v>申万多元金融</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -2623,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48">
         <v>360</v>
@@ -2647,11 +2638,11 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>申万化学原料.IND</v>
+        <v>申万一般零售.IND</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>申万化学原料</v>
+        <v>申万一般零售</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2663,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49">
         <v>360</v>
@@ -2687,11 +2678,11 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>申万中药.IND</v>
+        <v>申万化学原料.IND</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>申万中药</v>
+        <v>申万化学原料</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2703,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50">
         <v>360</v>
@@ -2727,11 +2718,11 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>申万酒店.IND</v>
+        <v>申万中药.IND</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>申万酒店</v>
+        <v>申万中药</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -2743,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51">
         <v>360</v>
@@ -2767,11 +2758,11 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>申万高速公路.IND</v>
+        <v>申万酒店.IND</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>申万高速公路</v>
+        <v>申万酒店</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -2783,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G52">
         <v>360</v>
@@ -2807,11 +2798,11 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>申万景点.IND</v>
+        <v>申万高速公路.IND</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>申万景点</v>
+        <v>申万高速公路</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -2823,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G53">
         <v>360</v>
@@ -2847,11 +2838,11 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>申万造纸.IND</v>
+        <v>申万景点.IND</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>申万造纸</v>
+        <v>申万景点</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -2863,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54">
         <v>360</v>
@@ -2887,11 +2878,11 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>申万基础建设.IND</v>
+        <v>申万造纸.IND</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>申万基础建设</v>
+        <v>申万造纸</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -2903,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G55">
         <v>360</v>
@@ -2927,11 +2918,11 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>申万农产品加工.IND</v>
+        <v>申万基础建设.IND</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>申万农产品加工</v>
+        <v>申万基础建设</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -2943,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56">
         <v>360</v>
@@ -2967,11 +2958,11 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>申万地面兵装.IND</v>
+        <v>申万农产品加工.IND</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>申万地面兵装</v>
+        <v>申万农产品加工</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -2983,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57">
         <v>360</v>
@@ -3007,11 +2998,11 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>申万航运.IND</v>
+        <v>申万地面兵装.IND</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>申万航运</v>
+        <v>申万地面兵装</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -3023,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58">
         <v>360</v>
@@ -3047,11 +3038,11 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>申万旅游综合.IND</v>
+        <v>申万航运.IND</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>申万旅游综合</v>
+        <v>申万航运</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -3063,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59">
         <v>360</v>
@@ -3087,11 +3078,11 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>申万互联网传媒.IND</v>
+        <v>申万旅游综合.IND</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>申万互联网传媒</v>
+        <v>申万旅游综合</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -3103,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G60">
         <v>360</v>
@@ -3127,11 +3118,11 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>申万元件.IND</v>
+        <v>申万互联网传媒.IND</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>申万元件</v>
+        <v>申万互联网传媒</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -3143,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G61">
         <v>360</v>
@@ -3167,11 +3158,11 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>申万高低压设备.IND</v>
+        <v>申万元件.IND</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>申万高低压设备</v>
+        <v>申万元件</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -3183,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G62">
         <v>360</v>
@@ -3207,11 +3198,11 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>申万水务.IND</v>
+        <v>申万高低压设备.IND</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>申万水务</v>
+        <v>申万高低压设备</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -3223,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63">
         <v>360</v>
@@ -3247,11 +3238,11 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>申万汽车整车.IND</v>
+        <v>申万水务.IND</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>申万汽车整车</v>
+        <v>申万水务</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -3263,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G64">
         <v>360</v>
@@ -3287,11 +3278,11 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>申万煤炭开采.IND</v>
+        <v>申万汽车整车.IND</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>申万煤炭开采</v>
+        <v>申万汽车整车</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -3303,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G65">
         <v>360</v>
@@ -3327,11 +3318,11 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>申万铁路运输.IND</v>
+        <v>申万煤炭开采.IND</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>申万铁路运输</v>
+        <v>申万煤炭开采</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -3343,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G66">
         <v>360</v>
@@ -3367,11 +3358,11 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
-        <v>申万航空装备.IND</v>
+        <v>申万铁路运输.IND</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>申万航空装备</v>
+        <v>申万铁路运输</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -3383,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G67">
         <v>360</v>
@@ -3407,11 +3398,11 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
-        <v>申万饮料制造.IND</v>
+        <v>申万航空装备.IND</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>申万饮料制造</v>
+        <v>申万航空装备</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -3423,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G68">
         <v>360</v>
@@ -3446,12 +3437,12 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f t="shared" ref="A69:A106" si="2">B69&amp;".IND"</f>
-        <v>申万橡胶.IND</v>
+        <f t="shared" si="0"/>
+        <v>申万饮料制造.IND</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" ref="B69:B106" si="3">D69&amp;F69</f>
-        <v>申万橡胶</v>
+        <f t="shared" si="1"/>
+        <v>申万饮料制造</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -3463,7 +3454,7 @@
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G69">
         <v>360</v>
@@ -3486,12 +3477,12 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f t="shared" si="2"/>
-        <v>申万林业.IND</v>
+        <f t="shared" ref="A70:A107" si="2">B70&amp;".IND"</f>
+        <v>申万橡胶.IND</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="3"/>
-        <v>申万林业</v>
+        <f t="shared" ref="B70:B107" si="3">D70&amp;F70</f>
+        <v>申万橡胶</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -3503,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G70">
         <v>360</v>
@@ -3527,11 +3518,11 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
-        <v>申万纺织制造.IND</v>
+        <v>申万林业.IND</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="3"/>
-        <v>申万纺织制造</v>
+        <v>申万林业</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -3543,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G71">
         <v>360</v>
@@ -3567,11 +3558,11 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
-        <v>申万保险.IND</v>
+        <v>申万纺织制造.IND</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="3"/>
-        <v>申万保险</v>
+        <v>申万纺织制造</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -3583,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G72">
         <v>360</v>
@@ -3607,11 +3598,11 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
-        <v>申万房屋建设.IND</v>
+        <v>申万保险.IND</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="3"/>
-        <v>申万房屋建设</v>
+        <v>申万保险</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -3623,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G73">
         <v>360</v>
@@ -3647,11 +3638,11 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
-        <v>申万其他采掘.IND</v>
+        <v>申万房屋建设.IND</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="3"/>
-        <v>申万其他采掘</v>
+        <v>申万房屋建设</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -3663,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G74">
         <v>360</v>
@@ -3687,11 +3678,11 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
-        <v>申万金属非金属新材料.IND</v>
+        <v>申万其他采掘.IND</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="3"/>
-        <v>申万金属非金属新材料</v>
+        <v>申万其他采掘</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -3703,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G75">
         <v>360</v>
@@ -3727,11 +3718,11 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
-        <v>申万食品加工.IND</v>
+        <v>申万金属非金属新材料.IND</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="3"/>
-        <v>申万食品加工</v>
+        <v>申万金属非金属新材料</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -3743,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G76">
         <v>360</v>
@@ -3767,11 +3758,11 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
-        <v>申万稀有金属.IND</v>
+        <v>申万食品加工.IND</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="3"/>
-        <v>申万稀有金属</v>
+        <v>申万食品加工</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -3783,7 +3774,7 @@
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77">
         <v>360</v>
@@ -3807,11 +3798,11 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
-        <v>申万包装印刷.IND</v>
+        <v>申万稀有金属.IND</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="3"/>
-        <v>申万包装印刷</v>
+        <v>申万稀有金属</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3823,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78">
         <v>360</v>
@@ -3847,11 +3838,11 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
-        <v>申万半导体.IND</v>
+        <v>申万包装印刷.IND</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="3"/>
-        <v>申万半导体</v>
+        <v>申万包装印刷</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -3863,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G79">
         <v>360</v>
@@ -3887,11 +3878,11 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
-        <v>申万证券.IND</v>
+        <v>申万半导体.IND</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="3"/>
-        <v>申万证券</v>
+        <v>申万半导体</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -3903,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="G80">
         <v>360</v>
@@ -3927,11 +3918,11 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
-        <v>申万钢铁.IND</v>
+        <v>申万证券.IND</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="3"/>
-        <v>申万钢铁</v>
+        <v>申万证券</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -3943,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="G81">
         <v>360</v>
@@ -3967,11 +3958,11 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
-        <v>申万医疗器械.IND</v>
+        <v>申万钢铁.IND</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="3"/>
-        <v>申万医疗器械</v>
+        <v>申万钢铁</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3983,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G82">
         <v>360</v>
@@ -4007,11 +3998,11 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
-        <v>申万种植业.IND</v>
+        <v>申万医疗器械.IND</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="3"/>
-        <v>申万种植业</v>
+        <v>申万医疗器械</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -4023,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83">
         <v>360</v>
@@ -4047,11 +4038,11 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
-        <v>申万餐饮.IND</v>
+        <v>申万种植业.IND</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="3"/>
-        <v>申万餐饮</v>
+        <v>申万种植业</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -4063,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G84">
         <v>360</v>
@@ -4087,11 +4078,11 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
-        <v>申万畜禽养殖.IND</v>
+        <v>申万餐饮.IND</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="3"/>
-        <v>申万畜禽养殖</v>
+        <v>申万餐饮</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -4103,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G85">
         <v>360</v>
@@ -4127,11 +4118,11 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
-        <v>申万渔业.IND</v>
+        <v>申万畜禽养殖.IND</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="3"/>
-        <v>申万渔业</v>
+        <v>申万畜禽养殖</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -4143,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86">
         <v>360</v>
@@ -4167,11 +4158,11 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
-        <v>申万电源设备.IND</v>
+        <v>申万渔业.IND</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="3"/>
-        <v>申万电源设备</v>
+        <v>申万渔业</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -4183,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G87">
         <v>360</v>
@@ -4207,11 +4198,11 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
-        <v>申万专业零售.IND</v>
+        <v>申万电源设备.IND</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="3"/>
-        <v>申万专业零售</v>
+        <v>申万电源设备</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
@@ -4223,7 +4214,7 @@
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G88">
         <v>360</v>
@@ -4247,11 +4238,11 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
-        <v>申万塑料.IND</v>
+        <v>申万专业零售.IND</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="3"/>
-        <v>申万塑料</v>
+        <v>申万专业零售</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -4263,7 +4254,7 @@
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G89">
         <v>360</v>
@@ -4287,11 +4278,11 @@
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
-        <v>申万通信运营.IND</v>
+        <v>申万塑料.IND</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="3"/>
-        <v>申万通信运营</v>
+        <v>申万塑料</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -4303,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G90">
         <v>360</v>
@@ -4327,11 +4318,11 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
-        <v>申万仪器仪表.IND</v>
+        <v>申万通信运营.IND</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="3"/>
-        <v>申万仪器仪表</v>
+        <v>申万通信运营</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -4343,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G91">
         <v>360</v>
@@ -4367,11 +4358,11 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
-        <v>申万电机.IND</v>
+        <v>申万仪器仪表.IND</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="3"/>
-        <v>申万电机</v>
+        <v>申万仪器仪表</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -4383,7 +4374,7 @@
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G92">
         <v>360</v>
@@ -4407,11 +4398,11 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
-        <v>申万计算机应用.IND</v>
+        <v>申万电机.IND</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="3"/>
-        <v>申万计算机应用</v>
+        <v>申万电机</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -4423,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93">
         <v>360</v>
@@ -4447,11 +4438,11 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
-        <v>申万黄金.IND</v>
+        <v>申万计算机应用.IND</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="3"/>
-        <v>申万黄金</v>
+        <v>申万计算机应用</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -4463,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G94">
         <v>360</v>
@@ -4487,11 +4478,11 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
-        <v>申万物流.IND</v>
+        <v>申万黄金.IND</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="3"/>
-        <v>申万物流</v>
+        <v>申万黄金</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
@@ -4503,7 +4494,7 @@
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G95">
         <v>360</v>
@@ -4527,11 +4518,11 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
-        <v>申万服装家纺.IND</v>
+        <v>申万物流.IND</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="3"/>
-        <v>申万服装家纺</v>
+        <v>申万物流</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -4543,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G96">
         <v>360</v>
@@ -4567,11 +4558,11 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
-        <v>申万其他休闲服务.IND</v>
+        <v>申万服装家纺.IND</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="3"/>
-        <v>申万其他休闲服务</v>
+        <v>申万服装家纺</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
@@ -4583,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G97">
         <v>360</v>
@@ -4607,11 +4598,11 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
-        <v>申万动物保健.IND</v>
+        <v>申万其他休闲服务.IND</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="3"/>
-        <v>申万动物保健</v>
+        <v>申万其他休闲服务</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
@@ -4623,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G98">
         <v>360</v>
@@ -4647,11 +4638,11 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
-        <v>申万园区开发.IND</v>
+        <v>申万动物保健.IND</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="3"/>
-        <v>申万园区开发</v>
+        <v>申万动物保健</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -4663,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G99">
         <v>360</v>
@@ -4687,11 +4678,11 @@
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
-        <v>申万船舶制造.IND</v>
+        <v>申万园区开发.IND</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>申万船舶制造</v>
+        <v>申万园区开发</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -4703,7 +4694,7 @@
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G100">
         <v>360</v>
@@ -4727,11 +4718,11 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
-        <v>申万装修装饰.IND</v>
+        <v>申万船舶制造.IND</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>申万装修装饰</v>
+        <v>申万船舶制造</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -4743,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G101">
         <v>360</v>
@@ -4767,11 +4758,11 @@
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
-        <v>申万采掘服务.IND</v>
+        <v>申万装修装饰.IND</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>申万采掘服务</v>
+        <v>申万装修装饰</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -4783,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="F102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G102">
         <v>360</v>
@@ -4807,11 +4798,11 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
-        <v>申万公交.IND</v>
+        <v>申万采掘服务.IND</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>申万公交</v>
+        <v>申万采掘服务</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -4823,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G103">
         <v>360</v>
@@ -4847,11 +4838,11 @@
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
-        <v>申万石油开采.IND</v>
+        <v>申万公交.IND</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>申万石油开采</v>
+        <v>申万公交</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
@@ -4863,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G104">
         <v>360</v>
@@ -4887,11 +4878,11 @@
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
-        <v>申万其他轻工制造.IND</v>
+        <v>申万石油开采.IND</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>申万其他轻工制造</v>
+        <v>申万石油开采</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -4903,7 +4894,7 @@
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G105">
         <v>360</v>
@@ -4927,46 +4918,87 @@
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
-        <v>申万农业综合.IND</v>
+        <v>申万其他轻工制造.IND</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="3"/>
+        <v>申万其他轻工制造</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>111</v>
+      </c>
+      <c r="G106">
+        <v>360</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" t="str">
+        <f t="shared" si="2"/>
+        <v>申万农业综合.IND</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="3"/>
         <v>申万农业综合</v>
       </c>
-      <c r="C106" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" t="s">
-        <v>113</v>
-      </c>
-      <c r="E106">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
         <v>112</v>
       </c>
-      <c r="G106">
-        <v>360</v>
-      </c>
-      <c r="H106" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="b">
-        <v>1</v>
-      </c>
-      <c r="K106" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2">
+      <c r="G107">
+        <v>360</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2">
         <v>40182</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AShareData/data/自编指数配置.xlsx
+++ b/AShareData/data/自编指数配置.xlsx
@@ -734,7 +734,7 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>119</v>
       </c>
       <c r="G3">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="G7">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>14</v>
       </c>
       <c r="G8">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="G9">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>16</v>
       </c>
       <c r="G10">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="G11">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="G12">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="G13">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="G14">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>21</v>
       </c>
       <c r="G15">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>22</v>
       </c>
       <c r="G16">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="G17">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>24</v>
       </c>
       <c r="G18">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>25</v>
       </c>
       <c r="G19">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>26</v>
       </c>
       <c r="G20">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="G21">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>28</v>
       </c>
       <c r="G22">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>29</v>
       </c>
       <c r="G23">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>30</v>
       </c>
       <c r="G24">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>31</v>
       </c>
       <c r="G25">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>32</v>
       </c>
       <c r="G26">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1777,7 +1777,7 @@
         <v>33</v>
       </c>
       <c r="G27">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>34</v>
       </c>
       <c r="G28">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>35</v>
       </c>
       <c r="G29">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>36</v>
       </c>
       <c r="G30">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>37</v>
       </c>
       <c r="G31">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>38</v>
       </c>
       <c r="G32">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -2017,7 +2017,7 @@
         <v>39</v>
       </c>
       <c r="G33">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -2057,7 +2057,7 @@
         <v>40</v>
       </c>
       <c r="G34">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>41</v>
       </c>
       <c r="G35">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="G36">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         <v>43</v>
       </c>
       <c r="G37">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -2217,7 +2217,7 @@
         <v>44</v>
       </c>
       <c r="G38">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>45</v>
       </c>
       <c r="G39">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -2297,7 +2297,7 @@
         <v>46</v>
       </c>
       <c r="G40">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>47</v>
       </c>
       <c r="G41">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>48</v>
       </c>
       <c r="G42">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -2417,7 +2417,7 @@
         <v>49</v>
       </c>
       <c r="G43">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -2457,7 +2457,7 @@
         <v>50</v>
       </c>
       <c r="G44">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>51</v>
       </c>
       <c r="G45">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -2537,7 +2537,7 @@
         <v>52</v>
       </c>
       <c r="G46">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>53</v>
       </c>
       <c r="G47">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -2617,7 +2617,7 @@
         <v>54</v>
       </c>
       <c r="G48">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>55</v>
       </c>
       <c r="G49">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -2697,7 +2697,7 @@
         <v>56</v>
       </c>
       <c r="G50">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -2737,7 +2737,7 @@
         <v>57</v>
       </c>
       <c r="G51">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
         <v>58</v>
       </c>
       <c r="G52">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -2817,7 +2817,7 @@
         <v>59</v>
       </c>
       <c r="G53">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>60</v>
       </c>
       <c r="G54">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>61</v>
       </c>
       <c r="G55">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>62</v>
       </c>
       <c r="G56">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>63</v>
       </c>
       <c r="G57">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>64</v>
       </c>
       <c r="G58">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -3057,7 +3057,7 @@
         <v>65</v>
       </c>
       <c r="G59">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         <v>66</v>
       </c>
       <c r="G60">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>67</v>
       </c>
       <c r="G61">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>68</v>
       </c>
       <c r="G62">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>69</v>
       </c>
       <c r="G63">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -3257,7 +3257,7 @@
         <v>70</v>
       </c>
       <c r="G64">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>71</v>
       </c>
       <c r="G65">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -3337,7 +3337,7 @@
         <v>72</v>
       </c>
       <c r="G66">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -3377,7 +3377,7 @@
         <v>73</v>
       </c>
       <c r="G67">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
@@ -3417,7 +3417,7 @@
         <v>74</v>
       </c>
       <c r="G68">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -3457,7 +3457,7 @@
         <v>75</v>
       </c>
       <c r="G69">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H69" t="b">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>76</v>
       </c>
       <c r="G70">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>77</v>
       </c>
       <c r="G71">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>78</v>
       </c>
       <c r="G72">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>79</v>
       </c>
       <c r="G73">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
@@ -3657,7 +3657,7 @@
         <v>80</v>
       </c>
       <c r="G74">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>81</v>
       </c>
       <c r="G75">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>82</v>
       </c>
       <c r="G76">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -3777,7 +3777,7 @@
         <v>83</v>
       </c>
       <c r="G77">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>84</v>
       </c>
       <c r="G78">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -3857,7 +3857,7 @@
         <v>85</v>
       </c>
       <c r="G79">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
@@ -3897,7 +3897,7 @@
         <v>86</v>
       </c>
       <c r="G80">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>7</v>
       </c>
       <c r="G81">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
         <v>87</v>
       </c>
       <c r="G82">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
@@ -4017,7 +4017,7 @@
         <v>88</v>
       </c>
       <c r="G83">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
@@ -4057,7 +4057,7 @@
         <v>89</v>
       </c>
       <c r="G84">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -4097,7 +4097,7 @@
         <v>90</v>
       </c>
       <c r="G85">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
         <v>91</v>
       </c>
       <c r="G86">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -4177,7 +4177,7 @@
         <v>92</v>
       </c>
       <c r="G87">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>93</v>
       </c>
       <c r="G88">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -4257,7 +4257,7 @@
         <v>94</v>
       </c>
       <c r="G89">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
@@ -4297,7 +4297,7 @@
         <v>95</v>
       </c>
       <c r="G90">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -4337,7 +4337,7 @@
         <v>96</v>
       </c>
       <c r="G91">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
@@ -4377,7 +4377,7 @@
         <v>97</v>
       </c>
       <c r="G92">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>98</v>
       </c>
       <c r="G93">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
         <v>99</v>
       </c>
       <c r="G94">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
@@ -4497,7 +4497,7 @@
         <v>100</v>
       </c>
       <c r="G95">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
@@ -4537,7 +4537,7 @@
         <v>101</v>
       </c>
       <c r="G96">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -4577,7 +4577,7 @@
         <v>102</v>
       </c>
       <c r="G97">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -4617,7 +4617,7 @@
         <v>103</v>
       </c>
       <c r="G98">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>104</v>
       </c>
       <c r="G99">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
@@ -4697,7 +4697,7 @@
         <v>105</v>
       </c>
       <c r="G100">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
@@ -4737,7 +4737,7 @@
         <v>106</v>
       </c>
       <c r="G101">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
@@ -4777,7 +4777,7 @@
         <v>107</v>
       </c>
       <c r="G102">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>108</v>
       </c>
       <c r="G103">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -4857,7 +4857,7 @@
         <v>109</v>
       </c>
       <c r="G104">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>110</v>
       </c>
       <c r="G105">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H105" t="b">
         <v>1</v>
@@ -4937,7 +4937,7 @@
         <v>111</v>
       </c>
       <c r="G106">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>112</v>
       </c>
       <c r="G107">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="H107" t="b">
         <v>1</v>

--- a/AShareData/data/自编指数配置.xlsx
+++ b/AShareData/data/自编指数配置.xlsx
@@ -746,7 +746,7 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,7 +809,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>B2&amp;".IND"</f>
+        <f t="shared" ref="A2:A7" si="0">B2&amp;".IND"</f>
         <v>全市场.IND</v>
       </c>
       <c r="B2" t="s">
@@ -839,7 +839,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>B3&amp;".IND"</f>
+        <f t="shared" si="0"/>
         <v>全市场等权.IND</v>
       </c>
       <c r="B3" t="s">
@@ -866,7 +866,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>B4&amp;".IND"</f>
+        <f t="shared" si="0"/>
         <v>次新股.IND</v>
       </c>
       <c r="B4" t="s">
@@ -876,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -899,17 +899,17 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>B5&amp;".IND"</f>
+        <f t="shared" si="0"/>
         <v>次新股等权.IND</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
       </c>
       <c r="G5">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>B6&amp;".IND"</f>
+        <f t="shared" si="0"/>
         <v>ST.IND</v>
       </c>
       <c r="B6" t="s">
@@ -956,7 +956,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>B7&amp;".IND"</f>
+        <f t="shared" si="0"/>
         <v>申万银行.IND</v>
       </c>
       <c r="B7" t="str">
@@ -996,11 +996,11 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f t="shared" ref="A8:A71" si="0">B8&amp;".IND"</f>
+        <f t="shared" ref="A8:A71" si="1">B8&amp;".IND"</f>
         <v>申万房地产开发.IND</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" ref="B8:B71" si="1">D8&amp;F8</f>
+        <f t="shared" ref="B8:B71" si="2">D8&amp;F8</f>
         <v>申万房地产开发</v>
       </c>
       <c r="C8" t="s">
@@ -1036,11 +1036,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万化学制药.IND</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万化学制药</v>
       </c>
       <c r="C9" t="s">
@@ -1076,11 +1076,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万环保工程及服务.IND</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万环保工程及服务</v>
       </c>
       <c r="C10" t="s">
@@ -1116,11 +1116,11 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万商业物业经营.IND</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万商业物业经营</v>
       </c>
       <c r="C11" t="s">
@@ -1156,11 +1156,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万运输设备.IND</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万运输设备</v>
       </c>
       <c r="C12" t="s">
@@ -1196,11 +1196,11 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万综合.IND</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万综合</v>
       </c>
       <c r="C13" t="s">
@@ -1236,11 +1236,11 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万园林工程.IND</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万园林工程</v>
       </c>
       <c r="C14" t="s">
@@ -1276,11 +1276,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万玻璃制造.IND</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万玻璃制造</v>
       </c>
       <c r="C15" t="s">
@@ -1316,11 +1316,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万视听器材.IND</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万视听器材</v>
       </c>
       <c r="C16" t="s">
@@ -1356,11 +1356,11 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万其他交运设备.IND</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万其他交运设备</v>
       </c>
       <c r="C17" t="s">
@@ -1396,11 +1396,11 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万贸易.IND</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万贸易</v>
       </c>
       <c r="C18" t="s">
@@ -1436,11 +1436,11 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万电子制造.IND</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万电子制造</v>
       </c>
       <c r="C19" t="s">
@@ -1476,11 +1476,11 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万其他建材.IND</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万其他建材</v>
       </c>
       <c r="C20" t="s">
@@ -1516,11 +1516,11 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万汽车服务.IND</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万汽车服务</v>
       </c>
       <c r="C21" t="s">
@@ -1556,11 +1556,11 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万家用轻工.IND</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万家用轻工</v>
       </c>
       <c r="C22" t="s">
@@ -1596,11 +1596,11 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万电力.IND</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万电力</v>
       </c>
       <c r="C23" t="s">
@@ -1636,11 +1636,11 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万医药商业.IND</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万医药商业</v>
       </c>
       <c r="C24" t="s">
@@ -1676,11 +1676,11 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万汽车零部件.IND</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万汽车零部件</v>
       </c>
       <c r="C25" t="s">
@@ -1716,11 +1716,11 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万通信设备.IND</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万通信设备</v>
       </c>
       <c r="C26" t="s">
@@ -1756,11 +1756,11 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万营销传播.IND</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万营销传播</v>
       </c>
       <c r="C27" t="s">
@@ -1796,11 +1796,11 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万金属制品.IND</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万金属制品</v>
       </c>
       <c r="C28" t="s">
@@ -1836,11 +1836,11 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万光学光电子.IND</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万光学光电子</v>
       </c>
       <c r="C29" t="s">
@@ -1876,11 +1876,11 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万饲料.IND</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万饲料</v>
       </c>
       <c r="C30" t="s">
@@ -1916,11 +1916,11 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万专业工程.IND</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万专业工程</v>
       </c>
       <c r="C31" t="s">
@@ -1956,11 +1956,11 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万石油化工.IND</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万石油化工</v>
       </c>
       <c r="C32" t="s">
@@ -1996,11 +1996,11 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万工业金属.IND</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万工业金属</v>
       </c>
       <c r="C33" t="s">
@@ -2036,11 +2036,11 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万其他电子.IND</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万其他电子</v>
       </c>
       <c r="C34" t="s">
@@ -2076,11 +2076,11 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万计算机设备.IND</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万计算机设备</v>
       </c>
       <c r="C35" t="s">
@@ -2116,11 +2116,11 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万港口.IND</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万港口</v>
       </c>
       <c r="C36" t="s">
@@ -2156,11 +2156,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万机场.IND</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万机场</v>
       </c>
       <c r="C37" t="s">
@@ -2196,11 +2196,11 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万航空运输.IND</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万航空运输</v>
       </c>
       <c r="C38" t="s">
@@ -2236,11 +2236,11 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万医疗服务.IND</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万医疗服务</v>
       </c>
       <c r="C39" t="s">
@@ -2276,11 +2276,11 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万文化传媒.IND</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万文化传媒</v>
       </c>
       <c r="C40" t="s">
@@ -2316,11 +2316,11 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万专用设备.IND</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万专用设备</v>
       </c>
       <c r="C41" t="s">
@@ -2356,11 +2356,11 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万化学纤维.IND</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万化学纤维</v>
       </c>
       <c r="C42" t="s">
@@ -2396,11 +2396,11 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万电气自动化设备.IND</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万电气自动化设备</v>
       </c>
       <c r="C43" t="s">
@@ -2436,11 +2436,11 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万水泥制造.IND</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万水泥制造</v>
       </c>
       <c r="C44" t="s">
@@ -2476,11 +2476,11 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万生物制品.IND</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万生物制品</v>
       </c>
       <c r="C45" t="s">
@@ -2516,11 +2516,11 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万白色家电.IND</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万白色家电</v>
       </c>
       <c r="C46" t="s">
@@ -2556,11 +2556,11 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万燃气.IND</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万燃气</v>
       </c>
       <c r="C47" t="s">
@@ -2596,11 +2596,11 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万化学制品.IND</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万化学制品</v>
       </c>
       <c r="C48" t="s">
@@ -2636,11 +2636,11 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万通用机械.IND</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万通用机械</v>
       </c>
       <c r="C49" t="s">
@@ -2676,11 +2676,11 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万多元金融.IND</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万多元金融</v>
       </c>
       <c r="C50" t="s">
@@ -2716,11 +2716,11 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万一般零售.IND</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万一般零售</v>
       </c>
       <c r="C51" t="s">
@@ -2756,11 +2756,11 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万化学原料.IND</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万化学原料</v>
       </c>
       <c r="C52" t="s">
@@ -2796,11 +2796,11 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万中药.IND</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万中药</v>
       </c>
       <c r="C53" t="s">
@@ -2836,11 +2836,11 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万酒店.IND</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万酒店</v>
       </c>
       <c r="C54" t="s">
@@ -2876,11 +2876,11 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万高速公路.IND</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万高速公路</v>
       </c>
       <c r="C55" t="s">
@@ -2916,11 +2916,11 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万景点.IND</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万景点</v>
       </c>
       <c r="C56" t="s">
@@ -2956,11 +2956,11 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万造纸.IND</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万造纸</v>
       </c>
       <c r="C57" t="s">
@@ -2996,11 +2996,11 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万基础建设.IND</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万基础建设</v>
       </c>
       <c r="C58" t="s">
@@ -3036,11 +3036,11 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万农产品加工.IND</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万农产品加工</v>
       </c>
       <c r="C59" t="s">
@@ -3076,11 +3076,11 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万地面兵装.IND</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万地面兵装</v>
       </c>
       <c r="C60" t="s">
@@ -3116,11 +3116,11 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万航运.IND</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万航运</v>
       </c>
       <c r="C61" t="s">
@@ -3156,11 +3156,11 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万旅游综合.IND</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万旅游综合</v>
       </c>
       <c r="C62" t="s">
@@ -3196,11 +3196,11 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万互联网传媒.IND</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万互联网传媒</v>
       </c>
       <c r="C63" t="s">
@@ -3236,11 +3236,11 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万元件.IND</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万元件</v>
       </c>
       <c r="C64" t="s">
@@ -3276,11 +3276,11 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万高低压设备.IND</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万高低压设备</v>
       </c>
       <c r="C65" t="s">
@@ -3316,11 +3316,11 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万水务.IND</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万水务</v>
       </c>
       <c r="C66" t="s">
@@ -3356,11 +3356,11 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万汽车整车.IND</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万汽车整车</v>
       </c>
       <c r="C67" t="s">
@@ -3396,11 +3396,11 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万煤炭开采.IND</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万煤炭开采</v>
       </c>
       <c r="C68" t="s">
@@ -3436,11 +3436,11 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万铁路运输.IND</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万铁路运输</v>
       </c>
       <c r="C69" t="s">
@@ -3476,11 +3476,11 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万航空装备.IND</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万航空装备</v>
       </c>
       <c r="C70" t="s">
@@ -3516,11 +3516,11 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>申万饮料制造.IND</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>申万饮料制造</v>
       </c>
       <c r="C71" t="s">
@@ -3556,11 +3556,11 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f t="shared" ref="A72:A109" si="2">B72&amp;".IND"</f>
+        <f t="shared" ref="A72:A109" si="3">B72&amp;".IND"</f>
         <v>申万橡胶.IND</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" ref="B72:B109" si="3">D72&amp;F72</f>
+        <f t="shared" ref="B72:B109" si="4">D72&amp;F72</f>
         <v>申万橡胶</v>
       </c>
       <c r="C72" t="s">
@@ -3596,11 +3596,11 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万林业.IND</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万林业</v>
       </c>
       <c r="C73" t="s">
@@ -3636,11 +3636,11 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万纺织制造.IND</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万纺织制造</v>
       </c>
       <c r="C74" t="s">
@@ -3676,11 +3676,11 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万保险.IND</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万保险</v>
       </c>
       <c r="C75" t="s">
@@ -3716,11 +3716,11 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万房屋建设.IND</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万房屋建设</v>
       </c>
       <c r="C76" t="s">
@@ -3756,11 +3756,11 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万其他采掘.IND</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万其他采掘</v>
       </c>
       <c r="C77" t="s">
@@ -3796,11 +3796,11 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万金属非金属新材料.IND</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万金属非金属新材料</v>
       </c>
       <c r="C78" t="s">
@@ -3836,11 +3836,11 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万食品加工.IND</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万食品加工</v>
       </c>
       <c r="C79" t="s">
@@ -3876,11 +3876,11 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万稀有金属.IND</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万稀有金属</v>
       </c>
       <c r="C80" t="s">
@@ -3916,11 +3916,11 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万包装印刷.IND</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万包装印刷</v>
       </c>
       <c r="C81" t="s">
@@ -3956,11 +3956,11 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万半导体.IND</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万半导体</v>
       </c>
       <c r="C82" t="s">
@@ -3996,11 +3996,11 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万证券.IND</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万证券</v>
       </c>
       <c r="C83" t="s">
@@ -4036,11 +4036,11 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万钢铁.IND</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万钢铁</v>
       </c>
       <c r="C84" t="s">
@@ -4076,11 +4076,11 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万医疗器械.IND</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万医疗器械</v>
       </c>
       <c r="C85" t="s">
@@ -4116,11 +4116,11 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万种植业.IND</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万种植业</v>
       </c>
       <c r="C86" t="s">
@@ -4156,11 +4156,11 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万餐饮.IND</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万餐饮</v>
       </c>
       <c r="C87" t="s">
@@ -4196,11 +4196,11 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万畜禽养殖.IND</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万畜禽养殖</v>
       </c>
       <c r="C88" t="s">
@@ -4236,11 +4236,11 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万渔业.IND</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万渔业</v>
       </c>
       <c r="C89" t="s">
@@ -4276,11 +4276,11 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万电源设备.IND</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万电源设备</v>
       </c>
       <c r="C90" t="s">
@@ -4316,11 +4316,11 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万专业零售.IND</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万专业零售</v>
       </c>
       <c r="C91" t="s">
@@ -4356,11 +4356,11 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万塑料.IND</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万塑料</v>
       </c>
       <c r="C92" t="s">
@@ -4396,11 +4396,11 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万通信运营.IND</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万通信运营</v>
       </c>
       <c r="C93" t="s">
@@ -4436,11 +4436,11 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万仪器仪表.IND</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万仪器仪表</v>
       </c>
       <c r="C94" t="s">
@@ -4476,11 +4476,11 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万电机.IND</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万电机</v>
       </c>
       <c r="C95" t="s">
@@ -4516,11 +4516,11 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万计算机应用.IND</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万计算机应用</v>
       </c>
       <c r="C96" t="s">
@@ -4556,11 +4556,11 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万黄金.IND</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万黄金</v>
       </c>
       <c r="C97" t="s">
@@ -4596,11 +4596,11 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万物流.IND</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万物流</v>
       </c>
       <c r="C98" t="s">
@@ -4636,11 +4636,11 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万服装家纺.IND</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万服装家纺</v>
       </c>
       <c r="C99" t="s">
@@ -4676,11 +4676,11 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万其他休闲服务.IND</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万其他休闲服务</v>
       </c>
       <c r="C100" t="s">
@@ -4716,11 +4716,11 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万动物保健.IND</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万动物保健</v>
       </c>
       <c r="C101" t="s">
@@ -4756,11 +4756,11 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万园区开发.IND</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万园区开发</v>
       </c>
       <c r="C102" t="s">
@@ -4796,11 +4796,11 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万船舶制造.IND</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万船舶制造</v>
       </c>
       <c r="C103" t="s">
@@ -4836,11 +4836,11 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万装修装饰.IND</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万装修装饰</v>
       </c>
       <c r="C104" t="s">
@@ -4876,11 +4876,11 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万采掘服务.IND</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万采掘服务</v>
       </c>
       <c r="C105" t="s">
@@ -4916,11 +4916,11 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万公交.IND</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万公交</v>
       </c>
       <c r="C106" t="s">
@@ -4956,11 +4956,11 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万石油开采.IND</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万石油开采</v>
       </c>
       <c r="C107" t="s">
@@ -4996,11 +4996,11 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万其他轻工制造.IND</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万其他轻工制造</v>
       </c>
       <c r="C108" t="s">
@@ -5036,11 +5036,11 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>申万农业综合.IND</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>申万农业综合</v>
       </c>
       <c r="C109" t="s">

--- a/AShareData/data/自编指数配置.xlsx
+++ b/AShareData/data/自编指数配置.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="124">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,9 @@
   <si>
     <t>次新股等权</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore_negative_book_value_stock</t>
   </si>
 </sst>
 </file>
@@ -743,30 +746,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -804,10 +808,13 @@
         <v>5</v>
       </c>
       <c r="M1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A7" si="0">B2&amp;".IND"</f>
         <v>全市场.IND</v>
@@ -833,11 +840,14 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>全市场等权.IND</v>
@@ -860,11 +870,14 @@
       <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>次新股.IND</v>
@@ -893,11 +906,14 @@
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>次新股等权.IND</v>
@@ -923,11 +939,14 @@
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>ST.IND</v>
@@ -950,11 +969,14 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>申万银行.IND</v>
@@ -990,11 +1012,14 @@
       <c r="L7" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" ref="A8:A71" si="1">B8&amp;".IND"</f>
         <v>申万房地产开发.IND</v>
@@ -1030,11 +1055,14 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
         <v>申万化学制药.IND</v>
@@ -1070,11 +1098,14 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
         <v>申万环保工程及服务.IND</v>
@@ -1110,11 +1141,14 @@
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
         <v>申万商业物业经营.IND</v>
@@ -1150,11 +1184,14 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
         <v>申万运输设备.IND</v>
@@ -1190,11 +1227,14 @@
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
         <v>申万综合.IND</v>
@@ -1230,11 +1270,14 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v>申万园林工程.IND</v>
@@ -1270,11 +1313,14 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>申万玻璃制造.IND</v>
@@ -1310,11 +1356,14 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>申万视听器材.IND</v>
@@ -1350,11 +1399,14 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
         <v>申万其他交运设备.IND</v>
@@ -1390,11 +1442,14 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
         <v>申万贸易.IND</v>
@@ -1430,11 +1485,14 @@
       <c r="L18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v>申万电子制造.IND</v>
@@ -1470,11 +1528,14 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>申万其他建材.IND</v>
@@ -1510,11 +1571,14 @@
       <c r="L20" t="b">
         <v>0</v>
       </c>
-      <c r="M20" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v>申万汽车服务.IND</v>
@@ -1550,11 +1614,14 @@
       <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="M21" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>申万家用轻工.IND</v>
@@ -1590,11 +1657,14 @@
       <c r="L22" t="b">
         <v>0</v>
       </c>
-      <c r="M22" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>申万电力.IND</v>
@@ -1630,11 +1700,14 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>申万医药商业.IND</v>
@@ -1670,11 +1743,14 @@
       <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="M24" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v>申万汽车零部件.IND</v>
@@ -1710,11 +1786,14 @@
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="M25" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v>申万通信设备.IND</v>
@@ -1750,11 +1829,14 @@
       <c r="L26" t="b">
         <v>0</v>
       </c>
-      <c r="M26" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v>申万营销传播.IND</v>
@@ -1790,11 +1872,14 @@
       <c r="L27" t="b">
         <v>0</v>
       </c>
-      <c r="M27" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
         <v>申万金属制品.IND</v>
@@ -1830,11 +1915,14 @@
       <c r="L28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
         <v>申万光学光电子.IND</v>
@@ -1870,11 +1958,14 @@
       <c r="L29" t="b">
         <v>0</v>
       </c>
-      <c r="M29" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
         <v>申万饲料.IND</v>
@@ -1910,11 +2001,14 @@
       <c r="L30" t="b">
         <v>0</v>
       </c>
-      <c r="M30" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
         <v>申万专业工程.IND</v>
@@ -1950,11 +2044,14 @@
       <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="M31" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
         <v>申万石油化工.IND</v>
@@ -1990,11 +2087,14 @@
       <c r="L32" t="b">
         <v>0</v>
       </c>
-      <c r="M32" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>申万工业金属.IND</v>
@@ -2030,11 +2130,14 @@
       <c r="L33" t="b">
         <v>0</v>
       </c>
-      <c r="M33" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>申万其他电子.IND</v>
@@ -2070,11 +2173,14 @@
       <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="M34" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>申万计算机设备.IND</v>
@@ -2110,11 +2216,14 @@
       <c r="L35" t="b">
         <v>0</v>
       </c>
-      <c r="M35" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>申万港口.IND</v>
@@ -2150,11 +2259,14 @@
       <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="M36" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>申万机场.IND</v>
@@ -2190,11 +2302,14 @@
       <c r="L37" t="b">
         <v>0</v>
       </c>
-      <c r="M37" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>申万航空运输.IND</v>
@@ -2230,11 +2345,14 @@
       <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="M38" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>申万医疗服务.IND</v>
@@ -2270,11 +2388,14 @@
       <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="M39" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>申万文化传媒.IND</v>
@@ -2310,11 +2431,14 @@
       <c r="L40" t="b">
         <v>0</v>
       </c>
-      <c r="M40" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>申万专用设备.IND</v>
@@ -2350,11 +2474,14 @@
       <c r="L41" t="b">
         <v>0</v>
       </c>
-      <c r="M41" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>申万化学纤维.IND</v>
@@ -2390,11 +2517,14 @@
       <c r="L42" t="b">
         <v>0</v>
       </c>
-      <c r="M42" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>申万电气自动化设备.IND</v>
@@ -2430,11 +2560,14 @@
       <c r="L43" t="b">
         <v>0</v>
       </c>
-      <c r="M43" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>申万水泥制造.IND</v>
@@ -2470,11 +2603,14 @@
       <c r="L44" t="b">
         <v>0</v>
       </c>
-      <c r="M44" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>申万生物制品.IND</v>
@@ -2510,11 +2646,14 @@
       <c r="L45" t="b">
         <v>0</v>
       </c>
-      <c r="M45" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>申万白色家电.IND</v>
@@ -2550,11 +2689,14 @@
       <c r="L46" t="b">
         <v>0</v>
       </c>
-      <c r="M46" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>申万燃气.IND</v>
@@ -2590,11 +2732,14 @@
       <c r="L47" t="b">
         <v>0</v>
       </c>
-      <c r="M47" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>申万化学制品.IND</v>
@@ -2630,11 +2775,14 @@
       <c r="L48" t="b">
         <v>0</v>
       </c>
-      <c r="M48" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>申万通用机械.IND</v>
@@ -2670,11 +2818,14 @@
       <c r="L49" t="b">
         <v>0</v>
       </c>
-      <c r="M49" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M49" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>申万多元金融.IND</v>
@@ -2710,11 +2861,14 @@
       <c r="L50" t="b">
         <v>0</v>
       </c>
-      <c r="M50" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>申万一般零售.IND</v>
@@ -2750,11 +2904,14 @@
       <c r="L51" t="b">
         <v>0</v>
       </c>
-      <c r="M51" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>申万化学原料.IND</v>
@@ -2790,11 +2947,14 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
-      <c r="M52" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M52" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>申万中药.IND</v>
@@ -2830,11 +2990,14 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-      <c r="M53" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>申万酒店.IND</v>
@@ -2870,11 +3033,14 @@
       <c r="L54" t="b">
         <v>0</v>
       </c>
-      <c r="M54" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M54" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>申万高速公路.IND</v>
@@ -2910,11 +3076,14 @@
       <c r="L55" t="b">
         <v>0</v>
       </c>
-      <c r="M55" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M55" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>申万景点.IND</v>
@@ -2950,11 +3119,14 @@
       <c r="L56" t="b">
         <v>0</v>
       </c>
-      <c r="M56" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M56" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>申万造纸.IND</v>
@@ -2990,11 +3162,14 @@
       <c r="L57" t="b">
         <v>0</v>
       </c>
-      <c r="M57" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>申万基础建设.IND</v>
@@ -3030,11 +3205,14 @@
       <c r="L58" t="b">
         <v>0</v>
       </c>
-      <c r="M58" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M58" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>申万农产品加工.IND</v>
@@ -3070,11 +3248,14 @@
       <c r="L59" t="b">
         <v>0</v>
       </c>
-      <c r="M59" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M59" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>申万地面兵装.IND</v>
@@ -3110,11 +3291,14 @@
       <c r="L60" t="b">
         <v>0</v>
       </c>
-      <c r="M60" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M60" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>申万航运.IND</v>
@@ -3150,11 +3334,14 @@
       <c r="L61" t="b">
         <v>0</v>
       </c>
-      <c r="M61" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M61" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>申万旅游综合.IND</v>
@@ -3190,11 +3377,14 @@
       <c r="L62" t="b">
         <v>0</v>
       </c>
-      <c r="M62" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>申万互联网传媒.IND</v>
@@ -3230,11 +3420,14 @@
       <c r="L63" t="b">
         <v>0</v>
       </c>
-      <c r="M63" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M63" t="b">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>申万元件.IND</v>
@@ -3270,11 +3463,14 @@
       <c r="L64" t="b">
         <v>0</v>
       </c>
-      <c r="M64" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>申万高低压设备.IND</v>
@@ -3310,11 +3506,14 @@
       <c r="L65" t="b">
         <v>0</v>
       </c>
-      <c r="M65" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M65" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="1"/>
         <v>申万水务.IND</v>
@@ -3350,11 +3549,14 @@
       <c r="L66" t="b">
         <v>0</v>
       </c>
-      <c r="M66" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M66" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>申万汽车整车.IND</v>
@@ -3390,11 +3592,14 @@
       <c r="L67" t="b">
         <v>0</v>
       </c>
-      <c r="M67" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M67" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>申万煤炭开采.IND</v>
@@ -3430,11 +3635,14 @@
       <c r="L68" t="b">
         <v>0</v>
       </c>
-      <c r="M68" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M68" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>申万铁路运输.IND</v>
@@ -3470,11 +3678,14 @@
       <c r="L69" t="b">
         <v>0</v>
       </c>
-      <c r="M69" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M69" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>申万航空装备.IND</v>
@@ -3510,11 +3721,14 @@
       <c r="L70" t="b">
         <v>0</v>
       </c>
-      <c r="M70" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M70" t="b">
+        <v>1</v>
+      </c>
+      <c r="N70" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>申万饮料制造.IND</v>
@@ -3550,11 +3764,14 @@
       <c r="L71" t="b">
         <v>0</v>
       </c>
-      <c r="M71" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M71" t="b">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" ref="A72:A109" si="3">B72&amp;".IND"</f>
         <v>申万橡胶.IND</v>
@@ -3590,11 +3807,14 @@
       <c r="L72" t="b">
         <v>0</v>
       </c>
-      <c r="M72" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M72" t="b">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="3"/>
         <v>申万林业.IND</v>
@@ -3630,11 +3850,14 @@
       <c r="L73" t="b">
         <v>0</v>
       </c>
-      <c r="M73" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M73" t="b">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="3"/>
         <v>申万纺织制造.IND</v>
@@ -3670,11 +3893,14 @@
       <c r="L74" t="b">
         <v>0</v>
       </c>
-      <c r="M74" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M74" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="3"/>
         <v>申万保险.IND</v>
@@ -3710,11 +3936,14 @@
       <c r="L75" t="b">
         <v>0</v>
       </c>
-      <c r="M75" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M75" t="b">
+        <v>1</v>
+      </c>
+      <c r="N75" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="3"/>
         <v>申万房屋建设.IND</v>
@@ -3750,11 +3979,14 @@
       <c r="L76" t="b">
         <v>0</v>
       </c>
-      <c r="M76" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M76" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="3"/>
         <v>申万其他采掘.IND</v>
@@ -3790,11 +4022,14 @@
       <c r="L77" t="b">
         <v>0</v>
       </c>
-      <c r="M77" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M77" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="3"/>
         <v>申万金属非金属新材料.IND</v>
@@ -3830,11 +4065,14 @@
       <c r="L78" t="b">
         <v>0</v>
       </c>
-      <c r="M78" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M78" t="b">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="3"/>
         <v>申万食品加工.IND</v>
@@ -3870,11 +4108,14 @@
       <c r="L79" t="b">
         <v>0</v>
       </c>
-      <c r="M79" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M79" t="b">
+        <v>1</v>
+      </c>
+      <c r="N79" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="3"/>
         <v>申万稀有金属.IND</v>
@@ -3910,11 +4151,14 @@
       <c r="L80" t="b">
         <v>0</v>
       </c>
-      <c r="M80" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M80" t="b">
+        <v>1</v>
+      </c>
+      <c r="N80" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="3"/>
         <v>申万包装印刷.IND</v>
@@ -3950,11 +4194,14 @@
       <c r="L81" t="b">
         <v>0</v>
       </c>
-      <c r="M81" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M81" t="b">
+        <v>1</v>
+      </c>
+      <c r="N81" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="3"/>
         <v>申万半导体.IND</v>
@@ -3990,11 +4237,14 @@
       <c r="L82" t="b">
         <v>0</v>
       </c>
-      <c r="M82" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M82" t="b">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="3"/>
         <v>申万证券.IND</v>
@@ -4030,11 +4280,14 @@
       <c r="L83" t="b">
         <v>0</v>
       </c>
-      <c r="M83" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M83" t="b">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="3"/>
         <v>申万钢铁.IND</v>
@@ -4070,11 +4323,14 @@
       <c r="L84" t="b">
         <v>0</v>
       </c>
-      <c r="M84" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M84" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="3"/>
         <v>申万医疗器械.IND</v>
@@ -4110,11 +4366,14 @@
       <c r="L85" t="b">
         <v>0</v>
       </c>
-      <c r="M85" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M85" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="3"/>
         <v>申万种植业.IND</v>
@@ -4150,11 +4409,14 @@
       <c r="L86" t="b">
         <v>0</v>
       </c>
-      <c r="M86" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M86" t="b">
+        <v>1</v>
+      </c>
+      <c r="N86" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="3"/>
         <v>申万餐饮.IND</v>
@@ -4190,11 +4452,14 @@
       <c r="L87" t="b">
         <v>0</v>
       </c>
-      <c r="M87" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M87" t="b">
+        <v>1</v>
+      </c>
+      <c r="N87" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="3"/>
         <v>申万畜禽养殖.IND</v>
@@ -4230,11 +4495,14 @@
       <c r="L88" t="b">
         <v>0</v>
       </c>
-      <c r="M88" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M88" t="b">
+        <v>1</v>
+      </c>
+      <c r="N88" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="3"/>
         <v>申万渔业.IND</v>
@@ -4270,11 +4538,14 @@
       <c r="L89" t="b">
         <v>0</v>
       </c>
-      <c r="M89" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M89" t="b">
+        <v>1</v>
+      </c>
+      <c r="N89" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="3"/>
         <v>申万电源设备.IND</v>
@@ -4310,11 +4581,14 @@
       <c r="L90" t="b">
         <v>0</v>
       </c>
-      <c r="M90" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M90" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="3"/>
         <v>申万专业零售.IND</v>
@@ -4350,11 +4624,14 @@
       <c r="L91" t="b">
         <v>0</v>
       </c>
-      <c r="M91" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M91" t="b">
+        <v>1</v>
+      </c>
+      <c r="N91" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="3"/>
         <v>申万塑料.IND</v>
@@ -4390,11 +4667,14 @@
       <c r="L92" t="b">
         <v>0</v>
       </c>
-      <c r="M92" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M92" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="3"/>
         <v>申万通信运营.IND</v>
@@ -4430,11 +4710,14 @@
       <c r="L93" t="b">
         <v>0</v>
       </c>
-      <c r="M93" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M93" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="3"/>
         <v>申万仪器仪表.IND</v>
@@ -4470,11 +4753,14 @@
       <c r="L94" t="b">
         <v>0</v>
       </c>
-      <c r="M94" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M94" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="3"/>
         <v>申万电机.IND</v>
@@ -4510,11 +4796,14 @@
       <c r="L95" t="b">
         <v>0</v>
       </c>
-      <c r="M95" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M95" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>申万计算机应用.IND</v>
@@ -4550,11 +4839,14 @@
       <c r="L96" t="b">
         <v>0</v>
       </c>
-      <c r="M96" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M96" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>申万黄金.IND</v>
@@ -4590,11 +4882,14 @@
       <c r="L97" t="b">
         <v>0</v>
       </c>
-      <c r="M97" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M97" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>申万物流.IND</v>
@@ -4630,11 +4925,14 @@
       <c r="L98" t="b">
         <v>0</v>
       </c>
-      <c r="M98" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M98" t="b">
+        <v>1</v>
+      </c>
+      <c r="N98" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>申万服装家纺.IND</v>
@@ -4670,11 +4968,14 @@
       <c r="L99" t="b">
         <v>0</v>
       </c>
-      <c r="M99" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M99" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>申万其他休闲服务.IND</v>
@@ -4710,11 +5011,14 @@
       <c r="L100" t="b">
         <v>0</v>
       </c>
-      <c r="M100" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M100" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>申万动物保健.IND</v>
@@ -4750,11 +5054,14 @@
       <c r="L101" t="b">
         <v>0</v>
       </c>
-      <c r="M101" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M101" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>申万园区开发.IND</v>
@@ -4790,11 +5097,14 @@
       <c r="L102" t="b">
         <v>0</v>
       </c>
-      <c r="M102" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M102" t="b">
+        <v>1</v>
+      </c>
+      <c r="N102" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>申万船舶制造.IND</v>
@@ -4830,11 +5140,14 @@
       <c r="L103" t="b">
         <v>0</v>
       </c>
-      <c r="M103" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M103" t="b">
+        <v>1</v>
+      </c>
+      <c r="N103" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>申万装修装饰.IND</v>
@@ -4870,11 +5183,14 @@
       <c r="L104" t="b">
         <v>0</v>
       </c>
-      <c r="M104" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M104" t="b">
+        <v>1</v>
+      </c>
+      <c r="N104" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>申万采掘服务.IND</v>
@@ -4910,11 +5226,14 @@
       <c r="L105" t="b">
         <v>0</v>
       </c>
-      <c r="M105" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M105" t="b">
+        <v>1</v>
+      </c>
+      <c r="N105" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>申万公交.IND</v>
@@ -4950,11 +5269,14 @@
       <c r="L106" t="b">
         <v>0</v>
       </c>
-      <c r="M106" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M106" t="b">
+        <v>1</v>
+      </c>
+      <c r="N106" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>申万石油开采.IND</v>
@@ -4990,11 +5312,14 @@
       <c r="L107" t="b">
         <v>0</v>
       </c>
-      <c r="M107" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M107" t="b">
+        <v>1</v>
+      </c>
+      <c r="N107" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>申万其他轻工制造.IND</v>
@@ -5030,11 +5355,14 @@
       <c r="L108" t="b">
         <v>0</v>
       </c>
-      <c r="M108" s="2">
-        <v>40182</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M108" t="b">
+        <v>1</v>
+      </c>
+      <c r="N108" s="2">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>申万农业综合.IND</v>
@@ -5070,7 +5398,10 @@
       <c r="L109" t="b">
         <v>0</v>
       </c>
-      <c r="M109" s="2">
+      <c r="M109" t="b">
+        <v>1</v>
+      </c>
+      <c r="N109" s="2">
         <v>40182</v>
       </c>
     </row>

--- a/AShareData/data/自编指数配置.xlsx
+++ b/AShareData/data/自编指数配置.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="124">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,7 +748,7 @@
   <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5410,535 +5409,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A103" sqref="A1:A103"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>